--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ceacam1-Havcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ceacam1-Havcr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>42.924731</v>
+        <v>37.08402533333333</v>
       </c>
       <c r="H2">
-        <v>128.774193</v>
+        <v>111.252076</v>
       </c>
       <c r="I2">
-        <v>0.8780494305754949</v>
+        <v>0.8732570105511104</v>
       </c>
       <c r="J2">
-        <v>0.878049430575495</v>
+        <v>0.8732570105511105</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.011481</v>
+        <v>0.1258956666666667</v>
       </c>
       <c r="N2">
-        <v>0.034443</v>
+        <v>0.377687</v>
       </c>
       <c r="O2">
-        <v>0.000539077221501185</v>
+        <v>0.007149504986217847</v>
       </c>
       <c r="P2">
-        <v>0.000539077221501185</v>
+        <v>0.007149504986217847</v>
       </c>
       <c r="Q2">
-        <v>0.492818836611</v>
+        <v>4.668718092023554</v>
       </c>
       <c r="R2">
-        <v>4.435369529499</v>
+        <v>42.01846282821199</v>
       </c>
       <c r="S2">
-        <v>0.0004733364473753354</v>
+        <v>0.006243355351184855</v>
       </c>
       <c r="T2">
-        <v>0.0004733364473753355</v>
+        <v>0.006243355351184855</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>42.924731</v>
+        <v>37.08402533333333</v>
       </c>
       <c r="H3">
-        <v>128.774193</v>
+        <v>111.252076</v>
       </c>
       <c r="I3">
-        <v>0.8780494305754949</v>
+        <v>0.8732570105511104</v>
       </c>
       <c r="J3">
-        <v>0.878049430575495</v>
+        <v>0.8732570105511105</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.3791613333333333</v>
+        <v>0.082412</v>
       </c>
       <c r="N3">
-        <v>1.137484</v>
+        <v>0.247236</v>
       </c>
       <c r="O3">
-        <v>0.01780308667137165</v>
+        <v>0.004680105523283978</v>
       </c>
       <c r="P3">
-        <v>0.01780308667137165</v>
+        <v>0.004680105523283978</v>
       </c>
       <c r="Q3">
-        <v>16.27539823893467</v>
+        <v>3.056168695770666</v>
       </c>
       <c r="R3">
-        <v>146.478584150412</v>
+        <v>27.505518261936</v>
       </c>
       <c r="S3">
-        <v>0.01563199011428406</v>
+        <v>0.004086934958326707</v>
       </c>
       <c r="T3">
-        <v>0.01563199011428406</v>
+        <v>0.004086934958326707</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>42.924731</v>
+        <v>37.08402533333333</v>
       </c>
       <c r="H4">
-        <v>128.774193</v>
+        <v>111.252076</v>
       </c>
       <c r="I4">
-        <v>0.8780494305754949</v>
+        <v>0.8732570105511104</v>
       </c>
       <c r="J4">
-        <v>0.878049430575495</v>
+        <v>0.8732570105511105</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.906863</v>
+        <v>17.400697</v>
       </c>
       <c r="N4">
-        <v>62.720589</v>
+        <v>52.202091</v>
       </c>
       <c r="O4">
-        <v>0.9816578361071272</v>
+        <v>0.9881703894904982</v>
       </c>
       <c r="P4">
-        <v>0.9816578361071272</v>
+        <v>0.9881703894904982</v>
       </c>
       <c r="Q4">
-        <v>897.4214703288529</v>
+        <v>645.2878883656572</v>
       </c>
       <c r="R4">
-        <v>8076.793232959676</v>
+        <v>5807.590995290915</v>
       </c>
       <c r="S4">
-        <v>0.8619441040138355</v>
+        <v>0.8629267202415988</v>
       </c>
       <c r="T4">
-        <v>0.8619441040138356</v>
+        <v>0.8629267202415989</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.445889</v>
       </c>
       <c r="I5">
-        <v>0.003040303133950735</v>
+        <v>0.003499940937530227</v>
       </c>
       <c r="J5">
-        <v>0.003040303133950736</v>
+        <v>0.003499940937530227</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.011481</v>
+        <v>0.1258956666666667</v>
       </c>
       <c r="N5">
-        <v>0.034443</v>
+        <v>0.377687</v>
       </c>
       <c r="O5">
-        <v>0.000539077221501185</v>
+        <v>0.007149504986217847</v>
       </c>
       <c r="P5">
-        <v>0.000539077221501185</v>
+        <v>0.007149504986217847</v>
       </c>
       <c r="Q5">
-        <v>0.001706417203</v>
+        <v>0.01871183097144444</v>
       </c>
       <c r="R5">
-        <v>0.015357754827</v>
+        <v>0.168406478743</v>
       </c>
       <c r="S5">
-        <v>1.638958165971507E-06</v>
+        <v>2.502284518434033E-05</v>
       </c>
       <c r="T5">
-        <v>1.638958165971508E-06</v>
+        <v>2.502284518434033E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.445889</v>
       </c>
       <c r="I6">
-        <v>0.003040303133950735</v>
+        <v>0.003499940937530227</v>
       </c>
       <c r="J6">
-        <v>0.003040303133950736</v>
+        <v>0.003499940937530227</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.3791613333333333</v>
+        <v>0.082412</v>
       </c>
       <c r="N6">
-        <v>1.137484</v>
+        <v>0.247236</v>
       </c>
       <c r="O6">
-        <v>0.01780308667137165</v>
+        <v>0.004680105523283978</v>
       </c>
       <c r="P6">
-        <v>0.01780308667137165</v>
+        <v>0.004680105523283978</v>
       </c>
       <c r="Q6">
-        <v>0.05635462258622222</v>
+        <v>0.01224886808933333</v>
       </c>
       <c r="R6">
-        <v>0.507191603276</v>
+        <v>0.110239812804</v>
       </c>
       <c r="S6">
-        <v>5.41267802009678E-05</v>
+        <v>1.638009291290292E-05</v>
       </c>
       <c r="T6">
-        <v>5.412678020096781E-05</v>
+        <v>1.638009291290292E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.445889</v>
       </c>
       <c r="I7">
-        <v>0.003040303133950735</v>
+        <v>0.003499940937530227</v>
       </c>
       <c r="J7">
-        <v>0.003040303133950736</v>
+        <v>0.003499940937530227</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.906863</v>
+        <v>17.400697</v>
       </c>
       <c r="N7">
-        <v>62.720589</v>
+        <v>52.202091</v>
       </c>
       <c r="O7">
-        <v>0.9816578361071272</v>
+        <v>0.9881703894904982</v>
       </c>
       <c r="P7">
-        <v>0.9816578361071272</v>
+        <v>0.9881703894904982</v>
       </c>
       <c r="Q7">
-        <v>3.107380078735666</v>
+        <v>2.586259794877666</v>
       </c>
       <c r="R7">
-        <v>27.966420708621</v>
+        <v>23.276338153899</v>
       </c>
       <c r="S7">
-        <v>0.002984537395583796</v>
+        <v>0.003458537999432984</v>
       </c>
       <c r="T7">
-        <v>0.002984537395583796</v>
+        <v>0.003458537999432984</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8040363333333335</v>
+        <v>0.5778596666666668</v>
       </c>
       <c r="H8">
-        <v>2.412109000000001</v>
+        <v>1.733579</v>
       </c>
       <c r="I8">
-        <v>0.01644701383557517</v>
+        <v>0.01360747654807074</v>
       </c>
       <c r="J8">
-        <v>0.01644701383557517</v>
+        <v>0.01360747654807074</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.011481</v>
+        <v>0.1258956666666667</v>
       </c>
       <c r="N8">
-        <v>0.034443</v>
+        <v>0.377687</v>
       </c>
       <c r="O8">
-        <v>0.000539077221501185</v>
+        <v>0.007149504986217847</v>
       </c>
       <c r="P8">
-        <v>0.000539077221501185</v>
+        <v>0.007149504986217847</v>
       </c>
       <c r="Q8">
-        <v>0.009231141143000001</v>
+        <v>0.07275002797477778</v>
       </c>
       <c r="R8">
-        <v>0.08308027028700002</v>
+        <v>0.6547502517730001</v>
       </c>
       <c r="S8">
-        <v>8.86621052047341E-06</v>
+        <v>9.728672143027419E-05</v>
       </c>
       <c r="T8">
-        <v>8.866210520473412E-06</v>
+        <v>9.728672143027419E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8040363333333335</v>
+        <v>0.5778596666666668</v>
       </c>
       <c r="H9">
-        <v>2.412109000000001</v>
+        <v>1.733579</v>
       </c>
       <c r="I9">
-        <v>0.01644701383557517</v>
+        <v>0.01360747654807074</v>
       </c>
       <c r="J9">
-        <v>0.01644701383557517</v>
+        <v>0.01360747654807074</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.3791613333333333</v>
+        <v>0.082412</v>
       </c>
       <c r="N9">
-        <v>1.137484</v>
+        <v>0.247236</v>
       </c>
       <c r="O9">
-        <v>0.01780308667137165</v>
+        <v>0.004680105523283978</v>
       </c>
       <c r="P9">
-        <v>0.01780308667137165</v>
+        <v>0.004680105523283978</v>
       </c>
       <c r="Q9">
-        <v>0.3048594881951111</v>
+        <v>0.04762257084933334</v>
       </c>
       <c r="R9">
-        <v>2.743735393756</v>
+        <v>0.428603137644</v>
       </c>
       <c r="S9">
-        <v>0.0002928076127999934</v>
+        <v>6.368442615058308E-05</v>
       </c>
       <c r="T9">
-        <v>0.0002928076127999935</v>
+        <v>6.368442615058309E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8040363333333335</v>
+        <v>0.5778596666666668</v>
       </c>
       <c r="H10">
-        <v>2.412109000000001</v>
+        <v>1.733579</v>
       </c>
       <c r="I10">
-        <v>0.01644701383557517</v>
+        <v>0.01360747654807074</v>
       </c>
       <c r="J10">
-        <v>0.01644701383557517</v>
+        <v>0.01360747654807074</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.906863</v>
+        <v>17.400697</v>
       </c>
       <c r="N10">
-        <v>62.720589</v>
+        <v>52.202091</v>
       </c>
       <c r="O10">
-        <v>0.9816578361071272</v>
+        <v>0.9881703894904982</v>
       </c>
       <c r="P10">
-        <v>0.9816578361071272</v>
+        <v>0.9881703894904982</v>
       </c>
       <c r="Q10">
-        <v>16.80987746802234</v>
+        <v>10.05516096818767</v>
       </c>
       <c r="R10">
-        <v>151.288897212201</v>
+        <v>90.49644871368901</v>
       </c>
       <c r="S10">
-        <v>0.0161453400122547</v>
+        <v>0.01344650540048989</v>
       </c>
       <c r="T10">
-        <v>0.01614534001225471</v>
+        <v>0.01344650540048989</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.009066</v>
+        <v>4.655821</v>
       </c>
       <c r="H11">
-        <v>15.027198</v>
+        <v>13.967463</v>
       </c>
       <c r="I11">
-        <v>0.1024632524549792</v>
+        <v>0.1096355719632885</v>
       </c>
       <c r="J11">
-        <v>0.1024632524549792</v>
+        <v>0.1096355719632885</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1113,28 +1113,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.011481</v>
+        <v>0.1258956666666667</v>
       </c>
       <c r="N11">
-        <v>0.034443</v>
+        <v>0.377687</v>
       </c>
       <c r="O11">
-        <v>0.000539077221501185</v>
+        <v>0.007149504986217847</v>
       </c>
       <c r="P11">
-        <v>0.000539077221501185</v>
+        <v>0.007149504986217847</v>
       </c>
       <c r="Q11">
-        <v>0.057509086746</v>
+        <v>0.5861476886756667</v>
       </c>
       <c r="R11">
-        <v>0.5175817807140001</v>
+        <v>5.275329198081</v>
       </c>
       <c r="S11">
-        <v>5.523560543940466E-05</v>
+        <v>0.000783840068418377</v>
       </c>
       <c r="T11">
-        <v>5.523560543940467E-05</v>
+        <v>0.000783840068418377</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.009066</v>
+        <v>4.655821</v>
       </c>
       <c r="H12">
-        <v>15.027198</v>
+        <v>13.967463</v>
       </c>
       <c r="I12">
-        <v>0.1024632524549792</v>
+        <v>0.1096355719632885</v>
       </c>
       <c r="J12">
-        <v>0.1024632524549792</v>
+        <v>0.1096355719632885</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1175,28 +1175,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.3791613333333333</v>
+        <v>0.082412</v>
       </c>
       <c r="N12">
-        <v>1.137484</v>
+        <v>0.247236</v>
       </c>
       <c r="O12">
-        <v>0.01780308667137165</v>
+        <v>0.004680105523283978</v>
       </c>
       <c r="P12">
-        <v>0.01780308667137165</v>
+        <v>0.004680105523283978</v>
       </c>
       <c r="Q12">
-        <v>1.899244143314666</v>
+        <v>0.383695520252</v>
       </c>
       <c r="R12">
-        <v>17.093197289832</v>
+        <v>3.453259682268</v>
       </c>
       <c r="S12">
-        <v>0.001824162164086629</v>
+        <v>0.0005131060458937848</v>
       </c>
       <c r="T12">
-        <v>0.001824162164086629</v>
+        <v>0.0005131060458937848</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.009066</v>
+        <v>4.655821</v>
       </c>
       <c r="H13">
-        <v>15.027198</v>
+        <v>13.967463</v>
       </c>
       <c r="I13">
-        <v>0.1024632524549792</v>
+        <v>0.1096355719632885</v>
       </c>
       <c r="J13">
-        <v>0.1024632524549792</v>
+        <v>0.1096355719632885</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.906863</v>
+        <v>17.400697</v>
       </c>
       <c r="N13">
-        <v>62.720589</v>
+        <v>52.202091</v>
       </c>
       <c r="O13">
-        <v>0.9816578361071272</v>
+        <v>0.9881703894904982</v>
       </c>
       <c r="P13">
-        <v>0.9816578361071272</v>
+        <v>0.9881703894904982</v>
       </c>
       <c r="Q13">
-        <v>104.723856619958</v>
+        <v>81.014530507237</v>
       </c>
       <c r="R13">
-        <v>942.5147095796219</v>
+        <v>729.1307745651329</v>
       </c>
       <c r="S13">
-        <v>0.1005838546854532</v>
+        <v>0.1083386258489764</v>
       </c>
       <c r="T13">
-        <v>0.1005838546854532</v>
+        <v>0.1083386258489764</v>
       </c>
     </row>
   </sheetData>
